--- a/docentes/De Jesús Orduña Sofía del Pilar Estadisticos 2020.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar Estadisticos 2020.xlsx
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
